--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/18.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/18.xlsx
@@ -479,13 +479,13 @@
         <v>-5.871185461096173</v>
       </c>
       <c r="E2" t="n">
-        <v>-21.63714093341715</v>
+        <v>-21.59906045893075</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.03294226297320841</v>
+        <v>-0.04066689382293403</v>
       </c>
       <c r="G2" t="n">
-        <v>-8.972545098202728</v>
+        <v>-8.973219781150361</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-5.837293292167109</v>
       </c>
       <c r="E3" t="n">
-        <v>-21.78033016653535</v>
+        <v>-21.74293415301032</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1670330543120847</v>
+        <v>-0.1736185465618191</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.472609923012605</v>
+        <v>-8.474765975040915</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-5.685598448009144</v>
       </c>
       <c r="E4" t="n">
-        <v>-21.94931868889027</v>
+        <v>-21.91874283994458</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.3342859792292451</v>
+        <v>-0.3380016244481004</v>
       </c>
       <c r="G4" t="n">
-        <v>-8.366186021533601</v>
+        <v>-8.368053622156761</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-5.423216649443868</v>
       </c>
       <c r="E5" t="n">
-        <v>-22.06641040335288</v>
+        <v>-22.03764837595482</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3678930124324184</v>
+        <v>-0.3707824154907652</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.815483399037434</v>
+        <v>-7.823486703278574</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-5.055041417853279</v>
       </c>
       <c r="E6" t="n">
-        <v>-21.98571245600758</v>
+        <v>-21.96510529206354</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.4909590932864015</v>
+        <v>-0.4940293895988241</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.121772436677138</v>
+        <v>-7.130191306501966</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-4.586635083952437</v>
       </c>
       <c r="E7" t="n">
-        <v>-22.25385003762353</v>
+        <v>-22.23446512539622</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.6460286130912098</v>
+        <v>-0.6456570485693243</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.518366320155629</v>
+        <v>-6.529733261121206</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-4.032329729016066</v>
       </c>
       <c r="E8" t="n">
-        <v>-22.63978335069093</v>
+        <v>-22.62011487606533</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.8165571726092032</v>
+        <v>-0.8152175847276685</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.090847114678251</v>
+        <v>-6.10160781879233</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-3.399530200942168</v>
       </c>
       <c r="E9" t="n">
-        <v>-22.89929672419364</v>
+        <v>-22.88278165899721</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.9548378428330256</v>
+        <v>-0.950960860387562</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.75895688351773</v>
+        <v>-5.772377207367411</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-2.689495030688577</v>
       </c>
       <c r="E10" t="n">
-        <v>-23.33683350474133</v>
+        <v>-23.32342784791225</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.05121483520052</v>
+        <v>-1.047724084297543</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.452963721731257</v>
+        <v>-5.464232882559496</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-1.913449318624908</v>
       </c>
       <c r="E11" t="n">
-        <v>-23.73740450436827</v>
+        <v>-23.72880963029624</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.319303526747801</v>
+        <v>-1.313915841180461</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.066707734210641</v>
+        <v>-5.079600045318696</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-1.072923637399728</v>
       </c>
       <c r="E12" t="n">
-        <v>-24.20002189014323</v>
+        <v>-24.19248793056132</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.244213270278854</v>
+        <v>-1.239055368034259</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.914899181986065</v>
+        <v>-4.924276297156808</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.164063426929041</v>
       </c>
       <c r="E13" t="n">
-        <v>-24.77594689906581</v>
+        <v>-24.77060810356714</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.178265456651039</v>
+        <v>-1.170951502378134</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.856221321569352</v>
+        <v>-4.859976078843142</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.7982301364792593</v>
       </c>
       <c r="E14" t="n">
-        <v>-25.37702095931181</v>
+        <v>-25.37259640809725</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.115490608479851</v>
+        <v>-1.107516638279912</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.735101065448401</v>
+        <v>-4.73784379830074</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>1.799433468455637</v>
       </c>
       <c r="E15" t="n">
-        <v>-25.98230445447021</v>
+        <v>-25.97918526808912</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.074334948674161</v>
+        <v>-1.065304952990969</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.758641633512597</v>
+        <v>-4.757722500221616</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>2.821814364352764</v>
       </c>
       <c r="E16" t="n">
-        <v>-26.75043587935869</v>
+        <v>-26.74623622246001</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.9857314772250612</v>
+        <v>-0.9767112595556031</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.726173738909415</v>
+        <v>-4.721182062898294</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>3.825744667434893</v>
       </c>
       <c r="E17" t="n">
-        <v>-27.50742770210089</v>
+        <v>-27.50603677964726</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.8606902375968445</v>
+        <v>-0.8520709184904735</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.761022579856784</v>
+        <v>-4.753224613904055</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>4.772176402869508</v>
       </c>
       <c r="E18" t="n">
-        <v>-28.39847120412704</v>
+        <v>-28.3935650857361</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.6903670163672615</v>
+        <v>-0.68384019219993</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.018247898145781</v>
+        <v>-5.006421390534713</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>5.62841717113024</v>
       </c>
       <c r="E19" t="n">
-        <v>-29.03923422211865</v>
+        <v>-29.0375059581912</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.4392334006344413</v>
+        <v>-0.4320025594782742</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.328401604775998</v>
+        <v>-5.308405566690316</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>6.356667617092429</v>
       </c>
       <c r="E20" t="n">
-        <v>-29.46343623643683</v>
+        <v>-29.46216753915487</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.2356307096617683</v>
+        <v>-0.2281945302171907</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.655608167358015</v>
+        <v>-5.637093498353008</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>6.931088835241145</v>
       </c>
       <c r="E21" t="n">
-        <v>-30.06372072207381</v>
+        <v>-30.06112954843435</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1763903440474889</v>
+        <v>0.1828047210568813</v>
       </c>
       <c r="G21" t="n">
-        <v>-6.00005825715964</v>
+        <v>-5.978888857425899</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>7.342570631831485</v>
       </c>
       <c r="E22" t="n">
-        <v>-30.61249218685755</v>
+        <v>-30.60958322777173</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2406074492444168</v>
+        <v>0.2447239930263592</v>
       </c>
       <c r="G22" t="n">
-        <v>-6.268190949768724</v>
+        <v>-6.24534462067963</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>7.586961795454905</v>
       </c>
       <c r="E23" t="n">
-        <v>-30.93417172717652</v>
+        <v>-30.93267080206838</v>
       </c>
       <c r="F23" t="n">
-        <v>0.5254703233520831</v>
+        <v>0.5298410954911051</v>
       </c>
       <c r="G23" t="n">
-        <v>-6.574032552342322</v>
+        <v>-6.550086196708173</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>7.671720403793932</v>
       </c>
       <c r="E24" t="n">
-        <v>-31.13099581012821</v>
+        <v>-31.12940688289646</v>
       </c>
       <c r="F24" t="n">
-        <v>0.7115214796725314</v>
+        <v>0.7175594031531715</v>
       </c>
       <c r="G24" t="n">
-        <v>-6.83574108992828</v>
+        <v>-6.810401367337059</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>7.617832006809888</v>
       </c>
       <c r="E25" t="n">
-        <v>-31.42094814038434</v>
+        <v>-31.42097991892897</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9551944709264394</v>
+        <v>0.9589394501864963</v>
       </c>
       <c r="G25" t="n">
-        <v>-6.902177804242786</v>
+        <v>-6.874950925000937</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>7.450399821498358</v>
       </c>
       <c r="E26" t="n">
-        <v>-31.33731678891889</v>
+        <v>-31.33734123395323</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9992590898179439</v>
+        <v>1.000481341534672</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.076182447643157</v>
+        <v>-7.049004458469976</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>7.196281111037847</v>
       </c>
       <c r="E27" t="n">
-        <v>-31.43214396610957</v>
+        <v>-31.43254486467266</v>
       </c>
       <c r="F27" t="n">
-        <v>1.238067519239271</v>
+        <v>1.240849364146546</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.329594340575959</v>
+        <v>-7.302748803869729</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>6.884010466675634</v>
       </c>
       <c r="E28" t="n">
-        <v>-31.25688040344097</v>
+        <v>-31.25471212889549</v>
       </c>
       <c r="F28" t="n">
-        <v>1.394246843602869</v>
+        <v>1.396251336418304</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.520338943488645</v>
+        <v>-7.491053792355825</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>6.540848305111898</v>
       </c>
       <c r="E29" t="n">
-        <v>-31.06017854566095</v>
+        <v>-31.05943052761031</v>
       </c>
       <c r="F29" t="n">
-        <v>1.413162411170963</v>
+        <v>1.415308685185539</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.828810831756644</v>
+        <v>-7.797936753392077</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>6.186956133893222</v>
       </c>
       <c r="E30" t="n">
-        <v>-30.94920297878885</v>
+        <v>-30.94645291242621</v>
       </c>
       <c r="F30" t="n">
-        <v>1.543830897702999</v>
+        <v>1.544671806884109</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.877872015666136</v>
+        <v>-7.844802773218323</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>5.836445040008297</v>
       </c>
       <c r="E31" t="n">
-        <v>-30.6698866829717</v>
+        <v>-30.66817064156141</v>
       </c>
       <c r="F31" t="n">
-        <v>1.445244074231659</v>
+        <v>1.448945052429914</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.813332236015992</v>
+        <v>-7.783215953715795</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>5.501300398937711</v>
       </c>
       <c r="E32" t="n">
-        <v>-30.25558735206246</v>
+        <v>-30.25418176258822</v>
       </c>
       <c r="F32" t="n">
-        <v>1.429129907598307</v>
+        <v>1.429819257566542</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.813038895603976</v>
+        <v>-7.783773300498623</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>5.184590482716048</v>
       </c>
       <c r="E33" t="n">
-        <v>-29.77155367170698</v>
+        <v>-29.76859582255249</v>
       </c>
       <c r="F33" t="n">
-        <v>1.363949668048597</v>
+        <v>1.367034631381621</v>
       </c>
       <c r="G33" t="n">
-        <v>-8.056257209219261</v>
+        <v>-8.026546714489019</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>4.880446488547753</v>
       </c>
       <c r="E34" t="n">
-        <v>-29.20328973654485</v>
+        <v>-29.19812450078996</v>
       </c>
       <c r="F34" t="n">
-        <v>1.366975963299218</v>
+        <v>1.368995123135254</v>
       </c>
       <c r="G34" t="n">
-        <v>-8.071222459238887</v>
+        <v>-8.040436382997925</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>4.583172367750446</v>
       </c>
       <c r="E35" t="n">
-        <v>-28.71190298986153</v>
+        <v>-28.70922381409846</v>
       </c>
       <c r="F35" t="n">
-        <v>1.385568856414095</v>
+        <v>1.387148005632109</v>
       </c>
       <c r="G35" t="n">
-        <v>-8.040045262448571</v>
+        <v>-8.012500597760372</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>4.282519322267601</v>
       </c>
       <c r="E36" t="n">
-        <v>-28.07997685178187</v>
+        <v>-28.07935594790978</v>
       </c>
       <c r="F36" t="n">
-        <v>1.313822680642118</v>
+        <v>1.315538722052406</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.862931210680844</v>
+        <v>-7.838202613947987</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>3.959256936365413</v>
       </c>
       <c r="E37" t="n">
-        <v>-27.44624667016832</v>
+        <v>-27.44490219327992</v>
       </c>
       <c r="F37" t="n">
-        <v>1.402499487194222</v>
+        <v>1.404557759085193</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.761161643739142</v>
+        <v>-7.73794863913503</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>3.598560071656816</v>
       </c>
       <c r="E38" t="n">
-        <v>-26.86019897252779</v>
+        <v>-26.86061453811148</v>
       </c>
       <c r="F38" t="n">
-        <v>1.233158956344889</v>
+        <v>1.236517704062459</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.677691629500303</v>
+        <v>-7.657710258435221</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>3.189243581260324</v>
       </c>
       <c r="E39" t="n">
-        <v>-26.0942871567569</v>
+        <v>-26.09656543395688</v>
       </c>
       <c r="F39" t="n">
-        <v>1.319694377889283</v>
+        <v>1.322339330604284</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.588139690719022</v>
+        <v>-7.569708134830752</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>2.712493016101399</v>
       </c>
       <c r="E40" t="n">
-        <v>-25.47786161494879</v>
+        <v>-25.47681047847241</v>
       </c>
       <c r="F40" t="n">
-        <v>1.316159625924504</v>
+        <v>1.319117475078987</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.233153791119195</v>
+        <v>-7.21907345134248</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>2.158101826023472</v>
       </c>
       <c r="E41" t="n">
-        <v>-24.90486512113949</v>
+        <v>-24.90573047535494</v>
       </c>
       <c r="F41" t="n">
-        <v>1.374529478908601</v>
+        <v>1.375565948364387</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.221708626043747</v>
+        <v>-7.209803894322809</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.52610755977479</v>
       </c>
       <c r="E42" t="n">
-        <v>-24.23159509648977</v>
+        <v>-24.23124797700222</v>
       </c>
       <c r="F42" t="n">
-        <v>1.368667559675171</v>
+        <v>1.372133865543813</v>
       </c>
       <c r="G42" t="n">
-        <v>-6.955834654607178</v>
+        <v>-6.943255239938606</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.8066459596980285</v>
       </c>
       <c r="E43" t="n">
-        <v>-23.55174935760405</v>
+        <v>-23.55091822643667</v>
       </c>
       <c r="F43" t="n">
-        <v>1.324329156399119</v>
+        <v>1.327731905178491</v>
       </c>
       <c r="G43" t="n">
-        <v>-6.876666966411224</v>
+        <v>-6.86797431220185</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-0.0001472726905401376</v>
       </c>
       <c r="E44" t="n">
-        <v>-22.86928800004452</v>
+        <v>-22.86958134045653</v>
       </c>
       <c r="F44" t="n">
-        <v>1.436551420022284</v>
+        <v>1.439391933011962</v>
       </c>
       <c r="G44" t="n">
-        <v>-6.799058871405816</v>
+        <v>-6.790180434935499</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-0.878290590534004</v>
       </c>
       <c r="E45" t="n">
-        <v>-22.04014176945695</v>
+        <v>-22.03950619856425</v>
       </c>
       <c r="F45" t="n">
-        <v>1.479516012368733</v>
+        <v>1.483613000123208</v>
       </c>
       <c r="G45" t="n">
-        <v>-6.633169979404525</v>
+        <v>-6.62794852007066</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-1.821916966061104</v>
       </c>
       <c r="E46" t="n">
-        <v>-21.51943809309617</v>
+        <v>-21.51964832039145</v>
       </c>
       <c r="F46" t="n">
-        <v>1.464394314129365</v>
+        <v>1.469786888703572</v>
       </c>
       <c r="G46" t="n">
-        <v>-6.515139575623465</v>
+        <v>-6.508211852893046</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-2.815171002133901</v>
       </c>
       <c r="E47" t="n">
-        <v>-20.82968233729121</v>
+        <v>-20.83248373822595</v>
       </c>
       <c r="F47" t="n">
-        <v>1.54699897415276</v>
+        <v>1.549893266217974</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.492982596502606</v>
+        <v>-6.488225592821098</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-3.826348099500526</v>
       </c>
       <c r="E48" t="n">
-        <v>-20.17936131087478</v>
+        <v>-20.18502278082667</v>
       </c>
       <c r="F48" t="n">
-        <v>1.593253868120642</v>
+        <v>1.596915734263962</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.455791921265984</v>
+        <v>-6.452584732761288</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-4.835225589744201</v>
       </c>
       <c r="E49" t="n">
-        <v>-19.42030877173817</v>
+        <v>-19.42521733463255</v>
       </c>
       <c r="F49" t="n">
-        <v>1.741977457012195</v>
+        <v>1.74496464020788</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.20588544625676</v>
+        <v>-6.205430768618136</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-5.816607958724218</v>
       </c>
       <c r="E50" t="n">
-        <v>-19.01167579978769</v>
+        <v>-19.01969866005629</v>
       </c>
       <c r="F50" t="n">
-        <v>1.726425526168539</v>
+        <v>1.730913634472367</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.217262165236071</v>
+        <v>-6.214128311834378</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-6.73415845261286</v>
       </c>
       <c r="E51" t="n">
-        <v>-18.43694370854063</v>
+        <v>-18.44407676955946</v>
       </c>
       <c r="F51" t="n">
-        <v>1.705803695203891</v>
+        <v>1.707348621373836</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.285077579487048</v>
+        <v>-6.280296130771205</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-7.564998096462609</v>
       </c>
       <c r="E52" t="n">
-        <v>-17.98073581076819</v>
+        <v>-17.98518969602396</v>
       </c>
       <c r="F52" t="n">
-        <v>1.714496349413266</v>
+        <v>1.717801318055301</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.279699671933441</v>
+        <v>-6.277074275245908</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-8.287812380014584</v>
       </c>
       <c r="E53" t="n">
-        <v>-17.5790501175756</v>
+        <v>-17.58486314674036</v>
       </c>
       <c r="F53" t="n">
-        <v>1.803578943535324</v>
+        <v>1.806634572827145</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.188011237151319</v>
+        <v>-6.186128969507556</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-8.877288699218923</v>
       </c>
       <c r="E54" t="n">
-        <v>-16.9510082954517</v>
+        <v>-16.95769156783878</v>
       </c>
       <c r="F54" t="n">
-        <v>1.854361057861969</v>
+        <v>1.858291819382969</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.190949530278334</v>
+        <v>-6.187747230780505</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-9.32116727727569</v>
       </c>
       <c r="E55" t="n">
-        <v>-16.75007989123523</v>
+        <v>-16.75508134526008</v>
       </c>
       <c r="F55" t="n">
-        <v>1.84847958260107</v>
+        <v>1.850914308020794</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.407723205750476</v>
+        <v>-6.406525399068082</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-9.613479691573511</v>
       </c>
       <c r="E56" t="n">
-        <v>-16.204706286224</v>
+        <v>-16.20740012900767</v>
       </c>
       <c r="F56" t="n">
-        <v>1.890637488814478</v>
+        <v>1.891434396933785</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.318410828305674</v>
+        <v>-6.317340135801819</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-9.750124174500467</v>
       </c>
       <c r="E57" t="n">
-        <v>-16.11070535119383</v>
+        <v>-16.11263161989939</v>
       </c>
       <c r="F57" t="n">
-        <v>1.931206467796138</v>
+        <v>1.932414052492266</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.487863806312946</v>
+        <v>-6.486250434046864</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-9.737334586200223</v>
       </c>
       <c r="E58" t="n">
-        <v>-15.90328923486496</v>
+        <v>-15.90427192524521</v>
       </c>
       <c r="F58" t="n">
-        <v>1.827931086739427</v>
+        <v>1.828468877494787</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.649699711621564</v>
+        <v>-6.6471085379821</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-9.587173996886328</v>
       </c>
       <c r="E59" t="n">
-        <v>-15.65320186660166</v>
+        <v>-15.65171071950725</v>
       </c>
       <c r="F59" t="n">
-        <v>1.876874934484112</v>
+        <v>1.877080272772523</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.4206644069272</v>
+        <v>-6.420503069700592</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-9.317326957044253</v>
       </c>
       <c r="E60" t="n">
-        <v>-15.43182763566775</v>
+        <v>-15.42932935315876</v>
       </c>
       <c r="F60" t="n">
-        <v>1.937205279221843</v>
+        <v>1.937914185217545</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.432559360634404</v>
+        <v>-6.436323895921928</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-8.948515918596678</v>
       </c>
       <c r="E61" t="n">
-        <v>-15.30132537536919</v>
+        <v>-15.29844575032458</v>
       </c>
       <c r="F61" t="n">
-        <v>1.888544993875438</v>
+        <v>1.888985004493461</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.284564233766022</v>
+        <v>-6.287057627268148</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-8.502723858954745</v>
       </c>
       <c r="E62" t="n">
-        <v>-15.27249490187499</v>
+        <v>-15.267425001754</v>
       </c>
       <c r="F62" t="n">
-        <v>1.882272398065187</v>
+        <v>1.882907968957885</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.363942149257253</v>
+        <v>-6.366391541697578</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-8.008759400153663</v>
       </c>
       <c r="E63" t="n">
-        <v>-15.22521331646506</v>
+        <v>-15.21747401859473</v>
       </c>
       <c r="F63" t="n">
-        <v>1.867365816127963</v>
+        <v>1.868060055103065</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.39499223186903</v>
+        <v>-6.399279890891314</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-7.489746127721125</v>
       </c>
       <c r="E64" t="n">
-        <v>-15.2732478089325</v>
+        <v>-15.26444759657205</v>
       </c>
       <c r="F64" t="n">
-        <v>1.71838799887933</v>
+        <v>1.718661783263878</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.388871195271652</v>
+        <v>-6.393774869159168</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-6.96473210825458</v>
       </c>
       <c r="E65" t="n">
-        <v>-15.33542130925906</v>
+        <v>-15.32350191051752</v>
       </c>
       <c r="F65" t="n">
-        <v>1.704845449857976</v>
+        <v>1.705833029245093</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.490249641664001</v>
+        <v>-6.495021312366109</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-6.459436173805806</v>
       </c>
       <c r="E66" t="n">
-        <v>-15.34647046477829</v>
+        <v>-15.33359282069083</v>
       </c>
       <c r="F66" t="n">
-        <v>1.79537519001264</v>
+        <v>1.795590306314784</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.443725852318438</v>
+        <v>-6.446512586232579</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-5.987900424256701</v>
       </c>
       <c r="E67" t="n">
-        <v>-15.2365851464375</v>
+        <v>-15.22191323682989</v>
       </c>
       <c r="F67" t="n">
-        <v>1.616989996459514</v>
+        <v>1.616691767040633</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.19689945163537</v>
+        <v>-6.202790704910003</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-5.557577674103375</v>
       </c>
       <c r="E68" t="n">
-        <v>-15.37224041997379</v>
+        <v>-15.35605291823744</v>
       </c>
       <c r="F68" t="n">
-        <v>1.590076013657148</v>
+        <v>1.590188460815087</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.31721302162328</v>
+        <v>-6.323099385891045</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-5.181750985908833</v>
       </c>
       <c r="E69" t="n">
-        <v>-15.28799794264998</v>
+        <v>-15.2700406204278</v>
       </c>
       <c r="F69" t="n">
-        <v>1.543082879652361</v>
+        <v>1.545170485584534</v>
       </c>
       <c r="G69" t="n">
-        <v>-6.199304843013892</v>
+        <v>-6.201157776616452</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-4.859830627537994</v>
       </c>
       <c r="E70" t="n">
-        <v>-15.34132234054742</v>
+        <v>-15.32218676767032</v>
       </c>
       <c r="F70" t="n">
-        <v>1.482718311866562</v>
+        <v>1.482537418612486</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.132296114895956</v>
+        <v>-6.135381078228979</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-4.583352352828868</v>
       </c>
       <c r="E71" t="n">
-        <v>-15.3735995638828</v>
+        <v>-15.35381864209926</v>
       </c>
       <c r="F71" t="n">
-        <v>1.376103739119748</v>
+        <v>1.376015736996144</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.139399841873583</v>
+        <v>-6.14144833575082</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-4.349204635728176</v>
       </c>
       <c r="E72" t="n">
-        <v>-15.48914635217546</v>
+        <v>-15.46913564706918</v>
       </c>
       <c r="F72" t="n">
-        <v>1.297253836370144</v>
+        <v>1.297146278219072</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.999324906129603</v>
+        <v>-6.00089916634075</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-4.142248658324096</v>
       </c>
       <c r="E73" t="n">
-        <v>-15.60441935608358</v>
+        <v>-15.58402241943481</v>
       </c>
       <c r="F73" t="n">
-        <v>1.225830335051383</v>
+        <v>1.224045847544959</v>
       </c>
       <c r="G73" t="n">
-        <v>-6.149290302765352</v>
+        <v>-6.149549420129299</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-3.940577317670227</v>
       </c>
       <c r="E74" t="n">
-        <v>-15.709836122148</v>
+        <v>-15.69089122053871</v>
       </c>
       <c r="F74" t="n">
-        <v>1.087490996745158</v>
+        <v>1.087588776882496</v>
       </c>
       <c r="G74" t="n">
-        <v>-6.062177978410661</v>
+        <v>-6.061522851490495</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-3.730019905469173</v>
       </c>
       <c r="E75" t="n">
-        <v>-15.97592032087985</v>
+        <v>-15.95463847398817</v>
       </c>
       <c r="F75" t="n">
-        <v>1.039666731572996</v>
+        <v>1.039334279106046</v>
       </c>
       <c r="G75" t="n">
-        <v>-6.101187364201776</v>
+        <v>-6.099515323853291</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-3.49230522914783</v>
       </c>
       <c r="E76" t="n">
-        <v>-16.00595837907018</v>
+        <v>-15.98442719282828</v>
       </c>
       <c r="F76" t="n">
-        <v>0.812024793835702</v>
+        <v>0.8139852855893349</v>
       </c>
       <c r="G76" t="n">
-        <v>-6.241105851726015</v>
+        <v>-6.236260845920902</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-3.207450641071121</v>
       </c>
       <c r="E77" t="n">
-        <v>-16.05087368515652</v>
+        <v>-16.03183589241676</v>
       </c>
       <c r="F77" t="n">
-        <v>0.6697840280496786</v>
+        <v>0.6705711581552519</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.185410285498119</v>
+        <v>-6.178399449650963</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-2.867449894870102</v>
       </c>
       <c r="E78" t="n">
-        <v>-16.17708339742593</v>
+        <v>-16.16094478575825</v>
       </c>
       <c r="F78" t="n">
-        <v>0.6889391569542513</v>
+        <v>0.6886604835628372</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.161155922431354</v>
+        <v>-6.154780657476898</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-2.46735583182839</v>
       </c>
       <c r="E79" t="n">
-        <v>-16.31254311068755</v>
+        <v>-16.29533380651601</v>
       </c>
       <c r="F79" t="n">
-        <v>0.4050834182611694</v>
+        <v>0.4054989838448572</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.180594613734208</v>
+        <v>-6.17242997226646</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-2.002664146840948</v>
       </c>
       <c r="E80" t="n">
-        <v>-16.77247643169257</v>
+        <v>-16.75836675787465</v>
       </c>
       <c r="F80" t="n">
-        <v>0.3821833100965398</v>
+        <v>0.3836989022252835</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.152135704761896</v>
+        <v>-6.14190790239631</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-1.481991423320603</v>
       </c>
       <c r="E81" t="n">
-        <v>-17.22265129499123</v>
+        <v>-17.21136746714239</v>
       </c>
       <c r="F81" t="n">
-        <v>0.2236719294574234</v>
+        <v>0.2233688110316747</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.261145890873499</v>
+        <v>-6.249094488946554</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.9195517500262909</v>
       </c>
       <c r="E82" t="n">
-        <v>-17.65302079147202</v>
+        <v>-17.64268054194849</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.08256568267239514</v>
+        <v>-0.08291769116681301</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.312788470408722</v>
+        <v>-6.300013495465473</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.3278310452822374</v>
       </c>
       <c r="E83" t="n">
-        <v>-18.12254145494306</v>
+        <v>-18.11434259042725</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.09636734905769603</v>
+        <v>-0.09633312600962762</v>
       </c>
       <c r="G83" t="n">
-        <v>-6.371026320207412</v>
+        <v>-6.354364584804967</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.271294262073833</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.90139936089755</v>
+        <v>-18.89435919100919</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.1968022171247298</v>
+        <v>-0.1972422277427522</v>
       </c>
       <c r="G84" t="n">
-        <v>-6.410505050657751</v>
+        <v>-6.392547728435572</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.8536964093291892</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.59181513262955</v>
+        <v>-19.58411983582102</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.3541255690951859</v>
+        <v>-0.3541353471089198</v>
       </c>
       <c r="G85" t="n">
-        <v>-6.511345706294739</v>
+        <v>-6.49115410793438</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>1.400655252626907</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.23532577248036</v>
+        <v>-20.23071054999799</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.5145632184398669</v>
+        <v>-0.5134436358673433</v>
       </c>
       <c r="G86" t="n">
-        <v>-6.769411933764844</v>
+        <v>-6.748002972694623</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>1.890016953434398</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.98888795690543</v>
+        <v>-20.98529942586511</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.6134482713300886</v>
+        <v>-0.6123580227987666</v>
       </c>
       <c r="G87" t="n">
-        <v>-7.100779041190606</v>
+        <v>-7.077482923469756</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>2.301265510411551</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.83424613426369</v>
+        <v>-21.83077493938818</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.7341676288879525</v>
+        <v>-0.7326373697386082</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.408532245449168</v>
+        <v>-7.380689351342087</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>2.620611698114672</v>
       </c>
       <c r="E89" t="n">
-        <v>-22.81711740776767</v>
+        <v>-22.81621294149729</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.938894791440016</v>
+        <v>-0.937164083009128</v>
       </c>
       <c r="G89" t="n">
-        <v>-7.485216318156729</v>
+        <v>-7.457661875454796</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>2.833983050942444</v>
       </c>
       <c r="E90" t="n">
-        <v>-23.86202528940593</v>
+        <v>-23.86620050127028</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.186312761953981</v>
+        <v>-1.186219870823509</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.853466093386496</v>
+        <v>-7.82669389178327</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>2.932163320598972</v>
       </c>
       <c r="E91" t="n">
-        <v>-25.06869085224295</v>
+        <v>-25.07425943106436</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.112244307920219</v>
+        <v>-1.113799012103898</v>
       </c>
       <c r="G91" t="n">
-        <v>-8.22267411396218</v>
+        <v>-8.194767662765829</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>2.910998720258311</v>
       </c>
       <c r="E92" t="n">
-        <v>-26.33726102002884</v>
+        <v>-26.34512254307084</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.324593432177803</v>
+        <v>-1.328353078458461</v>
       </c>
       <c r="G92" t="n">
-        <v>-8.500281701879343</v>
+        <v>-8.472194357428917</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>2.770000448889122</v>
       </c>
       <c r="E93" t="n">
-        <v>-27.57806651781751</v>
+        <v>-27.5888565559728</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.61767961583562</v>
+        <v>-1.618222295597848</v>
       </c>
       <c r="G93" t="n">
-        <v>-8.798809350180038</v>
+        <v>-8.772790055634315</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>2.515350423558659</v>
       </c>
       <c r="E94" t="n">
-        <v>-29.07567687930464</v>
+        <v>-29.08996255736976</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.863024647438013</v>
+        <v>-1.864657575731563</v>
       </c>
       <c r="G94" t="n">
-        <v>-9.134684121937095</v>
+        <v>-9.108977723830856</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>2.157964209843554</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.7197667755314</v>
+        <v>-30.73329954653902</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.126405225372455</v>
+        <v>-2.128717725620506</v>
       </c>
       <c r="G95" t="n">
-        <v>-9.397062453463819</v>
+        <v>-9.373947228997045</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>1.708921396854993</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.54584261886876</v>
+        <v>-32.56151433038066</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.154976581502706</v>
+        <v>-2.156995741338742</v>
       </c>
       <c r="G96" t="n">
-        <v>-9.744641507660271</v>
+        <v>-9.722396526415807</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>1.195733815139544</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.26983110981808</v>
+        <v>-34.28561037948105</v>
       </c>
       <c r="F97" t="n">
-        <v>-2.52589575448181</v>
+        <v>-2.524795727936754</v>
       </c>
       <c r="G97" t="n">
-        <v>-10.10524487615018</v>
+        <v>-10.08336168141387</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.6278780032749731</v>
       </c>
       <c r="E98" t="n">
-        <v>-36.25786263913231</v>
+        <v>-36.27515750092402</v>
       </c>
       <c r="F98" t="n">
-        <v>-2.921421299022096</v>
+        <v>-2.9214946341251</v>
       </c>
       <c r="G98" t="n">
-        <v>-10.51334005734531</v>
+        <v>-10.4961991992699</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.04543328082853997</v>
       </c>
       <c r="E99" t="n">
-        <v>-38.29363776500539</v>
+        <v>-38.31235532779537</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.20026580567659</v>
+        <v>-3.199107111049131</v>
       </c>
       <c r="G99" t="n">
-        <v>-10.83894302567498</v>
+        <v>-10.82402177671715</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.5555356266129475</v>
       </c>
       <c r="E100" t="n">
-        <v>-40.48824694597081</v>
+        <v>-40.50838476525563</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.563299010579359</v>
+        <v>-3.561250516702122</v>
       </c>
       <c r="G100" t="n">
-        <v>-11.04201770390602</v>
+        <v>-11.02584486919027</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-1.114432824129693</v>
       </c>
       <c r="E101" t="n">
-        <v>-42.39396715567366</v>
+        <v>-42.41438853735676</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.9855038655924</v>
+        <v>-3.984301169903139</v>
       </c>
       <c r="G101" t="n">
-        <v>-11.28424354912732</v>
+        <v>-11.27123390185446</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-1.693228896610543</v>
       </c>
       <c r="E102" t="n">
-        <v>-44.66990007686334</v>
+        <v>-44.68991078196962</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.235757460089176</v>
+        <v>-4.232212930110663</v>
       </c>
       <c r="G102" t="n">
-        <v>-11.43484940566264</v>
+        <v>-11.42114551941468</v>
       </c>
     </row>
   </sheetData>
